--- a/1_semester/Moduls/ПУ/Модуль 1/import/user_import.xlsx
+++ b/1_semester/Moduls/ПУ/Модуль 1/import/user_import.xlsx
@@ -1,51 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Новая папка (2)\Пример\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ВКИ\VKI_Course3\1_semester\Moduls\ПУ\Модуль 1\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA2EB75-9305-4320-A3A2-2F60712B3552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2136" windowWidth="26760" windowHeight="16560"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="User" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
-  <si>
-    <t>Роль сотрудника</t>
-  </si>
-  <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>Логин</t>
-  </si>
-  <si>
-    <t>Пароль</t>
-  </si>
-  <si>
-    <t>Администратор</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>2L6KZG</t>
   </si>
@@ -131,16 +114,25 @@
     <t>wpmrc3do@tutanota.com</t>
   </si>
   <si>
-    <t>Менеджер</t>
-  </si>
-  <si>
-    <t>Авторизированный клиент</t>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>FIO</t>
+  </si>
+  <si>
+    <t>FK_UserRole</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -525,198 +517,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6B468B-CDB1-474F-A2D3-C8CAACF25F55}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.796875" customWidth="1"/>
-    <col min="2" max="2" width="38.5" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
+    <sortCondition ref="A1:A12"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
